--- a/data/input/absenteeism_data_45.xlsx
+++ b/data/input/absenteeism_data_45.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7010</v>
+        <v>35230</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nicolas da Cunha</t>
+          <t>Sr. Luiz Felipe Costa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -497,19 +497,19 @@
         <v>4</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45102</v>
+        <v>45100</v>
       </c>
       <c r="G2" t="n">
-        <v>5363.93</v>
+        <v>7398.37</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>25765</v>
+        <v>22247</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sr. Carlos Eduardo Alves</t>
+          <t>Leandro Cardoso</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,60 +519,60 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45084</v>
+        <v>45102</v>
       </c>
       <c r="G3" t="n">
-        <v>9168.27</v>
+        <v>3813.11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>75767</v>
+        <v>96323</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>João Lucas Melo</t>
+          <t>Dra. Ana Clara Silva</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45079</v>
+        <v>45087</v>
       </c>
       <c r="G4" t="n">
-        <v>4912.42</v>
+        <v>9935.73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>97475</v>
+        <v>96257</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mirella Mendes</t>
+          <t>Fernando Ferreira</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,143 +581,143 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45090</v>
+        <v>45080</v>
       </c>
       <c r="G5" t="n">
-        <v>9987.059999999999</v>
+        <v>10266.79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>68618</v>
+        <v>23979</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bianca Moraes</t>
+          <t>Ana Julia Jesus</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>4</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45093</v>
+        <v>45088</v>
       </c>
       <c r="G6" t="n">
-        <v>3806.69</v>
+        <v>7481.69</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>59492</v>
+        <v>17387</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dr. João Nascimento</t>
+          <t>Dra. Juliana Jesus</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45085</v>
+        <v>45101</v>
       </c>
       <c r="G7" t="n">
-        <v>7666.17</v>
+        <v>3838.1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>77151</v>
+        <v>94292</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Dra. Rafaela Farias</t>
+          <t>Bárbara da Mota</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45097</v>
+        <v>45095</v>
       </c>
       <c r="G8" t="n">
-        <v>11742.26</v>
+        <v>10788.66</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>45936</v>
+        <v>88446</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Danilo Viana</t>
+          <t>Esther Cavalcanti</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45106</v>
+        <v>45094</v>
       </c>
       <c r="G9" t="n">
-        <v>6717.17</v>
+        <v>4500.06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>35241</v>
+        <v>51751</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Stella Almeida</t>
+          <t>Ana Julia Gomes</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,27 +726,27 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>45098</v>
       </c>
       <c r="G10" t="n">
-        <v>8574.07</v>
+        <v>7846.33</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>42081</v>
+        <v>74748</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Camila Peixoto</t>
+          <t>Juan Monteiro</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45097</v>
+        <v>45105</v>
       </c>
       <c r="G11" t="n">
-        <v>10004.95</v>
+        <v>4542.24</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_45.xlsx
+++ b/data/input/absenteeism_data_45.xlsx
@@ -476,132 +476,132 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>35230</v>
+        <v>65569</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sr. Luiz Felipe Costa</t>
+          <t>Pedro Lucas Almeida</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>4</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45100</v>
+        <v>45095</v>
       </c>
       <c r="G2" t="n">
-        <v>7398.37</v>
+        <v>11025.98</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>22247</v>
+        <v>47595</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Leandro Cardoso</t>
+          <t>Luiza Fogaça</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45102</v>
+        <v>45083</v>
       </c>
       <c r="G3" t="n">
-        <v>3813.11</v>
+        <v>5941.98</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>96323</v>
+        <v>6630</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dra. Ana Clara Silva</t>
+          <t>Dr. Augusto Cardoso</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45087</v>
+        <v>45099</v>
       </c>
       <c r="G4" t="n">
-        <v>9935.73</v>
+        <v>11723.4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>96257</v>
+        <v>66020</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fernando Ferreira</t>
+          <t>Ana Carolina Cunha</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45080</v>
+        <v>45089</v>
       </c>
       <c r="G5" t="n">
-        <v>10266.79</v>
+        <v>11596.75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>23979</v>
+        <v>62288</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ana Julia Jesus</t>
+          <t>Gustavo Melo</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -613,24 +613,24 @@
         <v>4</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45088</v>
+        <v>45082</v>
       </c>
       <c r="G6" t="n">
-        <v>7481.69</v>
+        <v>5633.98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>17387</v>
+        <v>64238</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dra. Juliana Jesus</t>
+          <t>Rebeca Mendes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,27 +639,27 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45101</v>
+        <v>45084</v>
       </c>
       <c r="G7" t="n">
-        <v>3838.1</v>
+        <v>12048.72</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>94292</v>
+        <v>95674</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Bárbara da Mota</t>
+          <t>Vinicius Melo</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -668,100 +668,100 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45095</v>
+        <v>45096</v>
       </c>
       <c r="G8" t="n">
-        <v>10788.66</v>
+        <v>10461.03</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>88446</v>
+        <v>2844</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Esther Cavalcanti</t>
+          <t>Eloah Santos</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45094</v>
+        <v>45095</v>
       </c>
       <c r="G9" t="n">
-        <v>4500.06</v>
+        <v>10638</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>51751</v>
+        <v>75037</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ana Julia Gomes</t>
+          <t>Cauã Melo</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45098</v>
+        <v>45083</v>
       </c>
       <c r="G10" t="n">
-        <v>7846.33</v>
+        <v>3386.9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>74748</v>
+        <v>90143</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Juan Monteiro</t>
+          <t>João Lucas Barros</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45105</v>
+        <v>45083</v>
       </c>
       <c r="G11" t="n">
-        <v>4542.24</v>
+        <v>8105.05</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_45.xlsx
+++ b/data/input/absenteeism_data_45.xlsx
@@ -476,45 +476,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>65569</v>
+        <v>6804</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pedro Lucas Almeida</t>
+          <t>Brenda Duarte</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45095</v>
+        <v>45086</v>
       </c>
       <c r="G2" t="n">
-        <v>11025.98</v>
+        <v>11170.82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>47595</v>
+        <v>19258</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Luiza Fogaça</t>
+          <t>Sarah Azevedo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -523,27 +523,27 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45083</v>
+        <v>45093</v>
       </c>
       <c r="G3" t="n">
-        <v>5941.98</v>
+        <v>9686.190000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6630</v>
+        <v>45739</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dr. Augusto Cardoso</t>
+          <t>Sarah da Costa</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,109 +552,109 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45099</v>
+        <v>45078</v>
       </c>
       <c r="G4" t="n">
-        <v>11723.4</v>
+        <v>8971.530000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>66020</v>
+        <v>77774</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ana Carolina Cunha</t>
+          <t>Sr. Noah Nunes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45089</v>
+        <v>45081</v>
       </c>
       <c r="G5" t="n">
-        <v>11596.75</v>
+        <v>11480.94</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>62288</v>
+        <v>57252</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gustavo Melo</t>
+          <t>Dr. Lucca Souza</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45082</v>
+        <v>45081</v>
       </c>
       <c r="G6" t="n">
-        <v>5633.98</v>
+        <v>11089.88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>64238</v>
+        <v>86388</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rebeca Mendes</t>
+          <t>Ana Clara Rocha</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45084</v>
+        <v>45078</v>
       </c>
       <c r="G7" t="n">
-        <v>12048.72</v>
+        <v>3233.43</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>95674</v>
+        <v>11898</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Vinicius Melo</t>
+          <t>Nicolas da Cruz</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -668,100 +668,100 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45096</v>
+        <v>45087</v>
       </c>
       <c r="G8" t="n">
-        <v>10461.03</v>
+        <v>3439.77</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2844</v>
+        <v>82718</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Eloah Santos</t>
+          <t>Guilherme Melo</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45095</v>
+        <v>45102</v>
       </c>
       <c r="G9" t="n">
-        <v>10638</v>
+        <v>4636.53</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>75037</v>
+        <v>78000</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Cauã Melo</t>
+          <t>Giovanna Rocha</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45083</v>
+        <v>45106</v>
       </c>
       <c r="G10" t="n">
-        <v>3386.9</v>
+        <v>10272.33</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>90143</v>
+        <v>18175</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>João Lucas Barros</t>
+          <t>Cecília da Luz</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45083</v>
+        <v>45105</v>
       </c>
       <c r="G11" t="n">
-        <v>8105.05</v>
+        <v>6632.53</v>
       </c>
     </row>
   </sheetData>
